--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/Bypakke Vestfoldbyene/Buss CSV_text/Vestfold/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5F87363-1699-4E16-B044-D2053E1B7F78}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192DB1D5-99F3-4BC1-818C-7FAA20BE8C47}"/>
   <bookViews>
-    <workbookView xWindow="68460" yWindow="2340" windowWidth="17280" windowHeight="8880" xr2:uid="{D8760AB5-921E-4D72-A1FF-44AC7D610FDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8760AB5-921E-4D72-A1FF-44AC7D610FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>trafficData</t>
   </si>
@@ -99,13 +99,25 @@
   </si>
   <si>
     <t>Hundstokk-sykkel</t>
+  </si>
+  <si>
+    <t>trafficData1</t>
+  </si>
+  <si>
+    <t>trafficData2</t>
+  </si>
+  <si>
+    <t>Elveveien (v/Esso)</t>
+  </si>
+  <si>
+    <t>16644V1175490</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +133,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,9 +186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +226,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,13 +485,13 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
@@ -623,12 +642,62 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>2024</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>11650</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>2024</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>10829</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192DB1D5-99F3-4BC1-818C-7FAA20BE8C47}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EB74DAE-2DA4-455A-9861-31953934F97E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8760AB5-921E-4D72-A1FF-44AC7D610FDF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>trafficData</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>16644V1175490</t>
+  </si>
+  <si>
+    <t>trafficData3</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EDA6F9-7611-4A8E-B0A2-62169F910E1F}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,6 +702,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>2025</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10454</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EB74DAE-2DA4-455A-9861-31953934F97E}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A0646B-0764-4F17-977B-1E876A44C596}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8760AB5-921E-4D72-A1FF-44AC7D610FDF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>trafficData</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>trafficData3</t>
+  </si>
+  <si>
+    <t>trafficData4</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EDA6F9-7611-4A8E-B0A2-62169F910E1F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,6 +734,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>2025</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>10950</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A0646B-0764-4F17-977B-1E876A44C596}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123AB62F-29B3-4F69-B7FC-4E8DA3276995}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8760AB5-921E-4D72-A1FF-44AC7D610FDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8760AB5-921E-4D72-A1FF-44AC7D610FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>trafficData</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>trafficData4</t>
+  </si>
+  <si>
+    <t>trafficData5</t>
   </si>
 </sst>
 </file>
@@ -488,21 +491,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EDA6F9-7611-4A8E-B0A2-62169F910E1F}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -676,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -705,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -734,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -760,6 +763,35 @@
         <v>100</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>2025</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>10948</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123AB62F-29B3-4F69-B7FC-4E8DA3276995}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{B0F42B53-70D5-4B4D-88EC-D2E5852C5EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33892641-0AD8-409F-BFEE-8AC39A776570}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8760AB5-921E-4D72-A1FF-44AC7D610FDF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>trafficData</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>trafficData5</t>
+  </si>
+  <si>
+    <t>trafficData6</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EDA6F9-7611-4A8E-B0A2-62169F910E1F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +798,35 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>2025</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>11712</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
